--- a/analysis/requirements_to_query_mapping.xlsx
+++ b/analysis/requirements_to_query_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\OneDrive\A\HW_16_Tableau\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4672BC18-7B76-4FF2-AEB4-0E3A933210CF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5090EFA6-A1C5-4EAB-9870-41BA4104D7F3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14310" xr2:uid="{94168417-A106-4C04-AC8B-EFED821E32B7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>How many trips have been recorded total during the chosen period?</t>
   </si>
@@ -185,6 +185,21 @@
   </si>
   <si>
     <t>trips_by_start_station</t>
+  </si>
+  <si>
+    <t>average duration by age</t>
+  </si>
+  <si>
+    <t>line chart of female trips by year</t>
+  </si>
+  <si>
+    <t>pie chart of gener, filter by year</t>
+  </si>
+  <si>
+    <t>gender_trips_by_year_month_day</t>
+  </si>
+  <si>
+    <t>age_minutes_by_year_month_day</t>
   </si>
 </sst>
 </file>
@@ -603,7 +618,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,8 +841,12 @@
       <c r="A20" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="11"/>
+      <c r="B20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="D20" s="11"/>
       <c r="E20" s="10" t="s">
         <v>29</v>
@@ -844,8 +863,12 @@
       <c r="A22" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="11"/>
+      <c r="B22" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>43</v>
+      </c>
       <c r="D22" s="11"/>
       <c r="E22" s="12"/>
     </row>
@@ -860,8 +883,12 @@
       <c r="A24" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="11"/>
+      <c r="B24" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="D24" s="11"/>
       <c r="E24" s="10" t="s">
         <v>30</v>

--- a/analysis/requirements_to_query_mapping.xlsx
+++ b/analysis/requirements_to_query_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\OneDrive\A\HW_16_Tableau\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5090EFA6-A1C5-4EAB-9870-41BA4104D7F3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5437504C-3ABB-43F1-9E6E-79EADDB4822C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14310" xr2:uid="{94168417-A106-4C04-AC8B-EFED821E32B7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>How many trips have been recorded total during the chosen period?</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>age_minutes_by_year_month_day</t>
+  </si>
+  <si>
+    <t>bike_distances_by_year_month_day</t>
   </si>
 </sst>
 </file>
@@ -618,7 +621,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,7 +907,9 @@
       <c r="A26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>
